--- a/config/project/reliability_120KW_jinko/reliabilityReport.xlsx
+++ b/config/project/reliability_120KW_jinko/reliabilityReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\reliability_120KW_jinko\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{224E6439-A435-4AB8-A507-1F747D7A232F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10305" windowHeight="6330" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10310" windowHeight="6330" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -372,7 +378,7 @@
     <definedName name="遥信8">#REF!</definedName>
     <definedName name="遥信9">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -635,10 +641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高东豪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陶斯君</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,13 +691,17 @@
   <si>
     <t>time12</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -999,9 +1005,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,33 +1049,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,7 +1068,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1104,7 +1110,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1136,9 +1142,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,6 +1194,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1345,28 +1387,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="10" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
-    <col min="5" max="8" width="8.625" style="1"/>
-    <col min="9" max="9" width="8.625" style="3"/>
-    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="6" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="3"/>
+    <col min="3" max="3" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.58203125" style="1"/>
+    <col min="9" max="9" width="8.58203125" style="3"/>
+    <col min="10" max="10" width="8.58203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.08203125" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.58203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="25.5">
+    <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
@@ -1374,25 +1416,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="20.25">
+    <row r="2" spans="1:21" ht="21" x14ac:dyDescent="0.25">
       <c r="F2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="27" t="s">
         <v>60</v>
       </c>
@@ -1401,21 +1443,21 @@
       </c>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:21" ht="41.1" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="38" t="s">
+    <row r="4" spans="1:21" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="25" t="s">
         <v>46</v>
       </c>
@@ -1423,22 +1465,22 @@
         <v>21</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="48" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="39"/>
+    <row r="5" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="25" t="s">
         <v>47</v>
       </c>
@@ -1446,25 +1488,25 @@
         <v>24</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U5" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="39"/>
+    <row r="6" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="25" t="s">
         <v>48</v>
       </c>
@@ -1472,22 +1514,22 @@
         <v>25</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="41.45" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39"/>
+    <row r="7" spans="1:21" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="25" t="s">
         <v>49</v>
       </c>
@@ -1495,22 +1537,22 @@
         <v>26</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="50.1" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="39"/>
+    <row r="8" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="25" t="s">
         <v>50</v>
       </c>
@@ -1518,22 +1560,22 @@
         <v>27</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="39" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="39"/>
+    <row r="9" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="25" t="s">
         <v>51</v>
       </c>
@@ -1541,22 +1583,22 @@
         <v>28</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="33.6" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="40"/>
+    <row r="10" spans="1:21" ht="33.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="25" t="s">
         <v>52</v>
       </c>
@@ -1564,22 +1606,22 @@
         <v>29</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="33.6" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="40"/>
+    <row r="11" spans="1:21" ht="33.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="25" t="s">
         <v>53</v>
       </c>
@@ -1587,23 +1629,23 @@
         <v>30</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="40"/>
+    <row r="12" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
       <c r="I12" s="25" t="s">
         <v>54</v>
       </c>
@@ -1611,22 +1653,22 @@
         <v>31</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="44.25" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="40"/>
+    <row r="13" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="25" t="s">
         <v>55</v>
       </c>
@@ -1634,22 +1676,22 @@
         <v>32</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="28.5" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="40"/>
+    <row r="14" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="25" t="s">
         <v>56</v>
       </c>
@@ -1657,23 +1699,23 @@
         <v>33</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L14" s="18"/>
     </row>
-    <row r="15" spans="1:21" ht="26.45" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="41"/>
+    <row r="15" spans="1:21" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="25" t="s">
         <v>57</v>
       </c>
@@ -1681,15 +1723,15 @@
         <v>34</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
@@ -1700,27 +1742,29 @@
       <c r="D18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="29"/>
+      <c r="E18" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="37"/>
       <c r="G18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="43" t="str">
+      <c r="H18" s="38" t="str">
         <f>K15</f>
         <v>time12</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="39"/>
       <c r="J18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="B4:B15"/>
     <mergeCell ref="A3:C3"/>
@@ -1737,8 +1781,6 @@
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.31496062992125984" top="0.39370078740157483" bottom="0.74803149606299213" header="0.19685039370078741" footer="0.31496062992125984"/>
